--- a/cars_25_U.xlsx
+++ b/cars_25_U.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9084" tabRatio="444" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9084" tabRatio="444" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$Y$196</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="102">
   <si>
     <t>alfa-romero</t>
   </si>
@@ -264,6 +265,81 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Values of the variable with their numerical scaled equivalent used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make </t>
+  </si>
+  <si>
+    <t>Aspiration: std-1, turbo-2</t>
+  </si>
+  <si>
+    <t>Number-of-doors: four-4, two-2</t>
+  </si>
+  <si>
+    <t>Body-style: hardtop-5, wagon-4, sedan-3, hatchback-2, convertible-1</t>
+  </si>
+  <si>
+    <t>Engine-location: front-2, rear-1</t>
+  </si>
+  <si>
+    <t>Wheel-base: continuous from 86.6 120.9</t>
+  </si>
+  <si>
+    <t>Length: continuous from 141.1 to 208.1.</t>
+  </si>
+  <si>
+    <t>Width: continuous from 60.3 to 72.3</t>
+  </si>
+  <si>
+    <t>Height: continuous from 47.8 to 59.8</t>
+  </si>
+  <si>
+    <t>Curb-weight: continuous from 1488 to 4066.</t>
+  </si>
+  <si>
+    <t>Number-of-cylinders: eight-8, five-5, four-4, six-6, three-3, twelve-12, two-2</t>
+  </si>
+  <si>
+    <t>Engine-size: continuous from 61 to 326.</t>
+  </si>
+  <si>
+    <t>Bore: continuous from 2.54 to 3.94</t>
+  </si>
+  <si>
+    <t>Stroke: continuous from 2.07 to 4.17</t>
+  </si>
+  <si>
+    <t>Compression-ratio: continuous from 7 to 23</t>
+  </si>
+  <si>
+    <t>Horsepower: continuous from 48 to 288</t>
+  </si>
+  <si>
+    <t>Peak-rpm: continuous from 4150 to 6600.</t>
+  </si>
+  <si>
+    <t>City-mpg: continuous from 13 to 49</t>
+  </si>
+  <si>
+    <t>Highway-mpg: continuous from 16 to 54</t>
+  </si>
+  <si>
+    <t>Price: continuous from 5118 to 45400</t>
+  </si>
+  <si>
+    <t>drive-wheels: fwd-1, rwd-2</t>
+  </si>
+  <si>
+    <t>fuel-system: 1bbl-1, 2bbl-2, idi-3, mfi-4, mpfi-5, spdi-6, spfi-7</t>
+  </si>
+  <si>
+    <t>fuel-type: gas-1, diesel-2</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -302,17 +378,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5586,7 +5678,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField showAll="0">
@@ -6371,7 +6463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -20912,4 +21004,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>